--- a/data/колонки ПО.xlsx
+++ b/data/колонки ПО.xlsx
@@ -1,186 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\YandexDisk\ЦОПП\CDO\Автоматизация\Проекты\Lindy. Автоматизация работы ЦОПП РБ\Данные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\Lindy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CD9532-D93F-490C-A8E2-EB7A5A806D74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB780CF0-1BAE-42EF-B122-95D8FA950008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B247378D-0FC9-428A-9C20-00F6DFE7CB7A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60280A5E-DF82-4568-8AC4-A6C6961237E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Порядковый_номер_группы</t>
+  </si>
+  <si>
+    <t>Вид_документа</t>
+  </si>
+  <si>
+    <t>Статус_документа</t>
+  </si>
+  <si>
+    <t>Подтверждение_утраты</t>
+  </si>
+  <si>
+    <t>Подтверждение_обмена</t>
+  </si>
+  <si>
+    <t>Подтверждение_уничтожения</t>
+  </si>
+  <si>
+    <t>Серия_документа</t>
+  </si>
+  <si>
+    <t>Номер_документа</t>
+  </si>
+  <si>
+    <t>Дата_выдачи_документа</t>
+  </si>
+  <si>
+    <t>Регистрационный_номер</t>
+  </si>
+  <si>
+    <t>Программа_профессионального_обучения_направление_подготовки</t>
+  </si>
+  <si>
+    <t>Наименование_программы_профессионального_обучения</t>
+  </si>
+  <si>
+    <t>Наименование_профессий_рабочих_должностей_служащих</t>
+  </si>
+  <si>
+    <t>Присвоенный_квалификационный_разряд_класс_категория_при_наличии</t>
+  </si>
+  <si>
+    <t>Год_начала_обучения</t>
+  </si>
+  <si>
+    <t>Год_окончания_обучения</t>
+  </si>
+  <si>
+    <t>Срок_обучения_часов</t>
+  </si>
+  <si>
+    <t>Фамилия_получателя</t>
+  </si>
+  <si>
+    <t>Имя_получателя</t>
+  </si>
+  <si>
+    <t>Отчество_получателя</t>
+  </si>
+  <si>
+    <t>ФИО_именительный</t>
+  </si>
+  <si>
+    <t>ФИО_дательный</t>
+  </si>
+  <si>
+    <t>Дата_рождения_получателя</t>
+  </si>
+  <si>
+    <t>Пол_получателя</t>
+  </si>
   <si>
     <t>СНИЛС</t>
   </si>
   <si>
+    <t>Гражданство_получателя_код_страны_по_ОКСМ</t>
+  </si>
+  <si>
+    <t>Форма_обучения</t>
+  </si>
+  <si>
+    <t>Источник_финансирования_обучения</t>
+  </si>
+  <si>
+    <t>Форма_получения_образования_на_момент_прекращения_образовательных_отношений</t>
+  </si>
+  <si>
+    <t>Наименование_документа_об_образовании_оригинала</t>
+  </si>
+  <si>
+    <t>Серия_оригинала</t>
+  </si>
+  <si>
+    <t>Номер_оригинала</t>
+  </si>
+  <si>
+    <t>Регистрационный_N_оригинала</t>
+  </si>
+  <si>
+    <t>Дата_выдачи_оригинала</t>
+  </si>
+  <si>
+    <t>Фамилия_получателя_оригинала</t>
+  </si>
+  <si>
+    <t>Имя_получателя_оригинала</t>
+  </si>
+  <si>
+    <t>Отчество_получателя_оригинала</t>
+  </si>
+  <si>
+    <t>Номер_документа_для_изменения</t>
+  </si>
+  <si>
+    <t>Фамилия_Имя_Отчество_родителя_или_законного_представителя_указать_нет_если_обучаемый_совершеннолетний</t>
+  </si>
+  <si>
+    <t>Серия_паспорта_совершеннолетнего_или_родителя_законного_представителя_в_формате_1111</t>
+  </si>
+  <si>
+    <t>Номер_паспорта_в_формате_111111</t>
+  </si>
+  <si>
+    <t>Кем_выдан_паспорт</t>
+  </si>
+  <si>
+    <t>Дата_выдачи_паспорта</t>
+  </si>
+  <si>
+    <t>Уровень_образования</t>
+  </si>
+  <si>
+    <t>Категория_слушателя</t>
+  </si>
+  <si>
+    <t>Сведения_об_ограничении_возможностей_здоровья</t>
+  </si>
+  <si>
+    <t>Период_обучения_в_формате_с_дата_начала_по_дата_окончания</t>
+  </si>
+  <si>
+    <t>База_обучения_подразделение_образовательная_организация</t>
+  </si>
+  <si>
+    <t>Источник_финансирования_индикаторы_физ_лицо_юр_лицо_бюдж_ассигнования_собственные_средства_ЦОПП</t>
+  </si>
+  <si>
     <t>Индикатор</t>
   </si>
   <si>
-    <t>Порядковый_номер_группы</t>
-  </si>
-  <si>
-    <t>Вид_документа</t>
-  </si>
-  <si>
-    <t>Статус_документа</t>
-  </si>
-  <si>
-    <t>Подтверждение_утраты</t>
-  </si>
-  <si>
-    <t>Подтверждение_обмена</t>
-  </si>
-  <si>
-    <t>Подтверждение_уничтожения</t>
-  </si>
-  <si>
-    <t>Серия_документа</t>
-  </si>
-  <si>
-    <t>Номер_документа</t>
-  </si>
-  <si>
-    <t>Дата_выдачи_документа</t>
-  </si>
-  <si>
-    <t>Регистрационный_номер</t>
-  </si>
-  <si>
-    <t>Программа_профессионального_обучения,_направление_подготовки</t>
-  </si>
-  <si>
-    <t>Наименование_программы_профессионального_обучения</t>
-  </si>
-  <si>
-    <t>Наименование_
-профессий_рабочих,_должностей_служащих</t>
-  </si>
-  <si>
-    <t>Присвоенный_квалификационный_разряд,_класс,_категория_(при_наличии)</t>
-  </si>
-  <si>
-    <t>Год_начала_обучения</t>
-  </si>
-  <si>
-    <t>Год_окончания_обучения</t>
-  </si>
-  <si>
-    <t>Срок_обучения,часов</t>
-  </si>
-  <si>
-    <t>Фамилия_получателя</t>
-  </si>
-  <si>
-    <t>Имя_получателя</t>
-  </si>
-  <si>
-    <t>Отчество_получателя</t>
-  </si>
-  <si>
-    <t>Дата_рождения_получателя_</t>
-  </si>
-  <si>
-    <t>Пол_получателя</t>
-  </si>
-  <si>
-    <t>Гражданство_получателя_(код_страны_по_ОКСМ)</t>
-  </si>
-  <si>
-    <t>Форма_обучения</t>
-  </si>
-  <si>
-    <t>Источник_финансирования_обучения</t>
-  </si>
-  <si>
-    <t>Форма_получения_образования_на_момент_прекращения_образовательных_отношений</t>
-  </si>
-  <si>
-    <t>Наименование_документа_об_образовании_(оригинала)</t>
-  </si>
-  <si>
-    <t>Серия_(оригинала)</t>
-  </si>
-  <si>
-    <t>Номер_(оригинала)</t>
-  </si>
-  <si>
-    <t>Регистрационный_N_(оригинала)</t>
-  </si>
-  <si>
-    <t>Дата_выдачи_(оригинала)</t>
-  </si>
-  <si>
-    <t>Фамилия_получателя_(оригинала)</t>
-  </si>
-  <si>
-    <t>Имя_получателя_(оригинала)</t>
-  </si>
-  <si>
-    <t>Отчество_получателя_(оригинала)</t>
-  </si>
-  <si>
-    <t>Номер_документа_для_изменения</t>
-  </si>
-  <si>
-    <t>Фамилия_Имя_Отчество_родителя_или_законного_представителя_(указать"нет",_если_обучаемый_-_совершеннолетний)</t>
-  </si>
-  <si>
-    <t>Серия_паспорта_совершеннолетнего_или_родителя/законного_представителя_(в_формате_1111)</t>
-  </si>
-  <si>
-    <t>Номер_паспорта_(в_формате_111111)</t>
-  </si>
-  <si>
-    <t>Кем_выдан_паспорт</t>
-  </si>
-  <si>
-    <t>Дата_выдачи_паспорта</t>
-  </si>
-  <si>
-    <t>Уровень_образования</t>
-  </si>
-  <si>
-    <t>Категория_слушателя</t>
-  </si>
-  <si>
-    <t>Сведения_об_ограничении_возможностей_здоровья</t>
-  </si>
-  <si>
-    <t>Период_обучения_(в_формате_"с_хх.хх.хх_по_хх.хх.хх")</t>
-  </si>
-  <si>
-    <t>База_обучения_(подразделение/образовательная_организация)</t>
-  </si>
-  <si>
-    <t>Источник_финансирования_(индикаторы/_физ._лицо/_юр._лицо/_бюдж_ассигнования/_собственные_средства_ЦОПП)</t>
-  </si>
-  <si>
     <t>Наименование_заказчика</t>
   </si>
   <si>
-    <t>Стоимость_обучения_(руб.)</t>
-  </si>
-  <si>
-    <t>Отметка_об_оплате
-(оплачено_/
-не_оплачено_/_в_рамках_индикаторов)</t>
+    <t>Стоимость_обучения_руб</t>
+  </si>
+  <si>
+    <t>Отметка_об_оплате_оплачено_не_оплачено_в_рамках_индикаторов</t>
   </si>
   <si>
     <t>Использование_сетевой_формы_обучения</t>
@@ -190,9 +202,6 @@
   </si>
   <si>
     <t>прошли_ускоренное_обучение_по_индивидуаль-ным_учебным_планам</t>
-  </si>
-  <si>
-    <t>Название</t>
   </si>
 </sst>
 </file>
@@ -435,7 +444,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{13EE2EE6-06F6-4A90-A0F2-C860AFD7171C}"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{A07E6BE5-3E5B-42E0-AE48-6034C36703FC}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -755,308 +764,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B4D828-E101-4E11-8BE8-F7AAB56B753D}">
-  <dimension ref="A1:A55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2913E1-4B89-4889-87AF-602C1A901A4B}">
+  <dimension ref="A1:BD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:56" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>53</v>
+      <c r="BD1" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="BA1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"нет оплаты"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно!" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="A53" xr:uid="{785F47C5-A763-49D1-8059-8444CCDF0D62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="A54 A44" xr:uid="{02C9D50F-875E-4DF3-9C10-8D3A154EC34F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="A52" xr:uid="{AA03DC1D-3C78-4036-8293-2EA996599C65}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="выберете из списка" promptTitle="выберете из списка" prompt=" " sqref="A55" xr:uid="{3F6AF220-3C82-4612-9C36-84F75F99225C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="A45" xr:uid="{B13CE11F-A127-48A2-920A-F03E11741B64}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно!" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BB1" xr:uid="{35A5D77A-801D-4C7A-9551-69698A9AFED6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BC1 AS1" xr:uid="{CB8D5BD2-D861-4C65-81CD-12D5FF1F9375}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BA1" xr:uid="{44362504-D966-443A-A6E9-205F8E654162}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="выберете из списка" promptTitle="выберете из списка" prompt=" " sqref="BD1" xr:uid="{63E4F3B7-5F74-474A-A052-A4A49D9B1BDF}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="AT1" xr:uid="{8DB02244-156F-4D01-8DA2-4B47166F3E1B}">
       <formula1>"лицо с ОВЗ, инвалид, нет ОВЗ"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{ACE3C37E-EC57-4342-B60C-D648E67130C0}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{222697B9-9D6C-41AC-AE72-91ACE9DEF38A}">
       <formula1>18264</formula1>
       <formula2>73415</formula2>
     </dataValidation>

--- a/data/колонки ПО.xlsx
+++ b/data/колонки ПО.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\Lindy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB780CF0-1BAE-42EF-B122-95D8FA950008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9704151-7B6D-468D-81BA-DE9BFC99411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60280A5E-DF82-4568-8AC4-A6C6961237E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60280A5E-DF82-4568-8AC4-A6C6961237E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Порядковый_номер_группы</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>прошли_ускоренное_обучение_по_индивидуаль-ным_учебным_планам</t>
+  </si>
+  <si>
+    <t>Текущий_возраст</t>
+  </si>
+  <si>
+    <t>Возрастная_категория</t>
   </si>
 </sst>
 </file>
@@ -765,15 +771,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2913E1-4B89-4889-87AF-602C1A901A4B}">
-  <dimension ref="A1:BD1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,118 +849,124 @@
       <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AU1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AW1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AY1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="BA1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BB1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BC1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BD1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BE1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BF1" s="17" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BA1">
+  <conditionalFormatting sqref="BC1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"нет оплаты"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно!" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BB1" xr:uid="{35A5D77A-801D-4C7A-9551-69698A9AFED6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BC1 AS1" xr:uid="{CB8D5BD2-D861-4C65-81CD-12D5FF1F9375}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BA1" xr:uid="{44362504-D966-443A-A6E9-205F8E654162}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="выберете из списка" promptTitle="выберете из списка" prompt=" " sqref="BD1" xr:uid="{63E4F3B7-5F74-474A-A052-A4A49D9B1BDF}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="AT1" xr:uid="{8DB02244-156F-4D01-8DA2-4B47166F3E1B}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно!" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BD1" xr:uid="{35A5D77A-801D-4C7A-9551-69698A9AFED6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BE1 AU1" xr:uid="{CB8D5BD2-D861-4C65-81CD-12D5FF1F9375}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="BC1" xr:uid="{44362504-D966-443A-A6E9-205F8E654162}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="не верно" error="выберете из списка" promptTitle="выберете из списка" prompt=" " sqref="BF1" xr:uid="{63E4F3B7-5F74-474A-A052-A4A49D9B1BDF}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Выберете из списка" promptTitle="Выберете из списка" prompt=" " sqref="AV1" xr:uid="{8DB02244-156F-4D01-8DA2-4B47166F3E1B}">
       <formula1>"лицо с ОВЗ, инвалид, нет ОВЗ"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{222697B9-9D6C-41AC-AE72-91ACE9DEF38A}">
